--- a/Testing/Group1 Test Case Plan.xlsx
+++ b/Testing/Group1 Test Case Plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\GitHub\CS361_Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\GitHub\CS361_Final_Project\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Scenario</t>
   </si>
@@ -50,87 +50,9 @@
     <t>Functional Requirement(s)</t>
   </si>
   <si>
-    <t>Test Sensor Start</t>
-  </si>
-  <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>Test Manual Start</t>
-  </si>
-  <si>
-    <t>Test start a Racer by the manual triggering of the channel</t>
-  </si>
-  <si>
-    <t>Test start a Racer by a triggered sensor</t>
-  </si>
-  <si>
-    <t>Scenario 1 Racer Start</t>
-  </si>
-  <si>
-    <t>Scenario 2 Racer DNF</t>
-  </si>
-  <si>
-    <t>Test Racer DNF</t>
-  </si>
-  <si>
-    <t>Scenario 2 Racer Fall Starts</t>
-  </si>
-  <si>
-    <t>Test Racer Flase Start</t>
-  </si>
-  <si>
-    <t>Start Racer Use Case</t>
-  </si>
-  <si>
-    <t>Stop Racer Use Case</t>
-  </si>
-  <si>
-    <t>A racer can start via a sensor or manual trigger</t>
-  </si>
-  <si>
-    <t>A racer can fail to complete a racer</t>
-  </si>
-  <si>
-    <t>A racer can flase start and need to be reset</t>
-  </si>
-  <si>
-    <t>Test System Exit</t>
-  </si>
-  <si>
-    <t>Test System On/Off</t>
-  </si>
-  <si>
-    <t>Test that exit ends the simulation</t>
-  </si>
-  <si>
-    <t>Test that the system can be turned on and off without exiting the simulation</t>
-  </si>
-  <si>
-    <t>Power Use Case</t>
-  </si>
-  <si>
-    <t>Exiting the simulatoion must end the run and clear the stored data</t>
-  </si>
-  <si>
-    <t>Turning the machine on and off does not affect the stored data</t>
-  </si>
-  <si>
-    <t>Scenario 3 Power</t>
-  </si>
-  <si>
-    <t>Test a racers ability to fail</t>
-  </si>
-  <si>
-    <t>Test resetting a racer at the start</t>
-  </si>
-  <si>
     <t>testNewRacer</t>
   </si>
   <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
     <t>Ran - Passed</t>
   </si>
   <si>
@@ -149,9 +71,6 @@
     <t>Sam</t>
   </si>
   <si>
-    <t>Functional Tests</t>
-  </si>
-  <si>
     <t>TestLane</t>
   </si>
   <si>
@@ -231,6 +150,15 @@
   </si>
   <si>
     <t>Test ability to update time between float and string formats</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
   </si>
 </sst>
 </file>
@@ -300,12 +228,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -371,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -423,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -625,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -672,160 +597,171 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+    <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
-        <v>32</v>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
@@ -834,159 +770,17 @@
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Testing/Group1 Test Case Plan.xlsx
+++ b/Testing/Group1 Test Case Plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Scenario</t>
   </si>
@@ -98,9 +98,6 @@
     <t>TestNormalPARAGRP</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Test adding a Sensor to a start trigger and one to a stop trigger. Test ability to toggle a Sensor on and off</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Testing specific error, not 'real' error</t>
+  </si>
+  <si>
+    <t>Printing error</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +602,7 @@
     </row>
     <row r="2" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -619,13 +622,13 @@
     </row>
     <row r="3" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -634,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -642,7 +645,7 @@
     </row>
     <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -662,7 +665,7 @@
     </row>
     <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -677,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
@@ -685,10 +688,10 @@
     </row>
     <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -699,16 +702,16 @@
     </row>
     <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -716,13 +719,13 @@
     </row>
     <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -733,51 +736,55 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
